--- a/pred_ohlcv/54_21/2020-01-12 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 APIS ohlcv.xlsx
@@ -2810,7 +2810,7 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-24885021.03728699</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-30327639.09188699</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-30921238.53268699</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-30920267.11538699</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-32625447.95138698</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-33730126.36168698</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-31516315.66668698</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-31514728.95148698</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-32097799.54708698</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-37578320.92418698</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-37575321.40487918</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 APIS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-9700739.142686984</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-10997287.97978698</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-8073572.640586982</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6459896.660086982</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-7117015.828186982</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5732052.828986982</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-6231091.223386982</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-6039472.005986981</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-5908320.92138698</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-10032922.50098698</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-23115058.11358699</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-26047431.81348699</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-24886255.03728699</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-24885021.03728699</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-28924514.60298698</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-29343758.93208699</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-28904586.36258699</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-29086779.75108698</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-27434166.78978698</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-29464778.28908698</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-28645152.64178698</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-27982864.34128698</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-27374581.08588699</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-30960214.20788699</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-30921238.53268699</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-31514728.95148698</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-32097799.54708698</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-37578320.92418698</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-37575321.40487918</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
